--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -527,17 +527,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="2.140625" style="1" customWidth="1"/>
+    <col min="1" max="16" width="2.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -589,8 +589,8 @@
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -666,8 +666,8 @@
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -721,8 +721,8 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -788,8 +788,8 @@
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -879,8 +879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -966,8 +966,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -1053,8 +1053,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -1130,8 +1130,8 @@
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -1211,8 +1211,8 @@
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1276,8 +1276,8 @@
       <c r="O30" s="6"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1337,8 +1337,8 @@
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1400,8 +1400,8 @@
       <c r="O36" s="6"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>17</v>
       </c>
@@ -1487,8 +1487,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>16</v>
       </c>
@@ -1578,8 +1578,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
@@ -1673,8 +1673,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -1764,8 +1764,8 @@
       <c r="O48" s="6"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -1861,8 +1861,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
@@ -1958,8 +1958,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
